--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_141.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_141.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,634 +488,656 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['D:min', 'D:min', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(36.6, 39.0)]</t>
+          <t>[['A:min', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(35.14, 39.9)]</t>
+          <t>[('0:00:29.160000', '0:00:42.540000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:48.865000', '0:00:56.883000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1020408163265306</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_151</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
+          <t>[['G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(73.74, 83.38)]</t>
+          <t>[['Bb', 'F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(12.318208, 18.355396)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:02:11.460000', '0:02:13.760000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:22.564557', '0:00:28.578526')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_12</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1402173913043478</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A/3', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2833333333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['C', 'C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(21.740249, 26.767369)]</t>
+          <t>[['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(41.08, 43.26)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:04:12.620000', '0:04:17.600000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:04:00.860000', '0:04:13.720000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.08307692307692308</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:7', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1083333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min/C', 'D:7', 'G:maj']]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(28.479798, 31.393902)]</t>
+          <t>[['A#:min/F', 'F', 'A#:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(5.86, 10.96)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:10.260000', '0:00:15.940000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:13.360000', '0:00:18.320000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.235632183908046</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['B', 'E', 'A', 'B'], ['B', 'E', 'A', 'E'], ['A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(35.46, 50.44)]</t>
+          <t>[['A', 'D', 'G', 'A'], ['A', 'D', 'G', 'D'], ['G', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(113.02, 114.76)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:51.652811', '0:01:08.150589'), ('0:00:27.840748', '0:00:41.263102'), ('0:01:08.150589', '0:01:20.236575')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:31.434580', '0:00:36.345600'), ('0:00:34.406734', '0:00:42.278299'), ('0:00:07.158117', '0:00:14.983242')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'B'], ['B', 'E/5', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_251</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5428571428571429</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:maj', 'D:maj'], ['D:maj', 'G:maj', 'D:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(54.178526, 61.620521), (58.625147, 64.604285)]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(45.298, 63.135), (11.384, 18.318)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:07.525011', '0:00:14.746417')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4526315789473684</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(135.68755, 139.228594)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(154.02, 160.38)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:00:12.820000', '0:00:52.640000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:10.880000', '0:00:45.640000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_20</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.09743589743589744</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['Eb', 'F:min', 'Bb:7', 'Eb'], ['F:min', 'Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7483552631578947</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'A:min/C', 'D:7', 'G:maj'], ['A:min/C', 'D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['G/3', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(6.26, 12.34), (7.12, 14.12)]</t>
+          <t>[['A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(23.28, 30.96), (5.86, 13.38)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:23.182222', '0:02:53.495873')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:03:16.576000', '0:04:06.376000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_29</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1821946169772257</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab', 'Eb:7']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(17.36, 20.12)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(33.92, 37.81)]</t>
+          <t>[('0:00:00.240000', '0:00:13.680000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:01.140000', '0:00:16.460000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.150268336314848</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:7/F', 'F#:maj']]</t>
+          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(31.6, 33.8)]</t>
+          <t>[['F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(38.58, 43.3)]</t>
+          <t>[('0:00:58.620000', '0:01:05.560000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:41.895260', '0:00:54.712675')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2455357142857143</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(1.829138, 15.586961)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(62.2, 64.4)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:01:14.180000', '0:01:27.700000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:03.460000', '0:00:15.080000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(31.74, 33.88)]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(35.14, 39.9)]</t>
+          <t>[('0:01:04.520000', '0:01:06.820000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:11.560000', '0:01:20')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_243</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_173</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1208333333333333</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'D', 'B'], ['B', 'E', 'C#:min']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:min', 'G', 'E'], ['E', 'A', 'F#:min']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(8.853684, 13.486066), (2.793277, 7.344387)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(34.237755, 40.507142), (37.337619, 50.004104)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:01:51.920000', '0:01:55.660000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_87</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.201048951048951</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min', 'B:7/A'], ['B:min', 'B:min', 'F#:maj/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7333333333333334</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:min', 'C', 'F:min', 'F:7'], ['F:min', 'F:min', 'C', 'F:min']]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(16.26, 20.08), (13.08, 19.34)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(11.89, 19.531), (246.38, 249.93)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_298</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.4115853658536585</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F', 'Bb', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_120</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_49</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(62.53, 66.23)]</t>
+          <t>[['A:min', 'E:7/B', 'A:min/C', 'A:maj/C#', 'D:min', 'B:hdim7', 'A:min', 'A#:maj', 'F:maj/A', 'E:7', 'F:maj'], ['A:7/G', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min', 'A:min/E']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.344657, 11.337709)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:02.600000', '0:00:10.700000'), ('0:01:12.880000', '0:01:20.600000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.340000', '0:00:08.840000'), ('0:01:11.800000', '0:01:19.080000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_11</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj'], ['D:min', 'A:maj', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E'], ['C:min', 'G:maj', 'C:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(57.48, 64.58), (85.58, 94.24)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(69.86, 73.74), (7.96, 13.12)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
